--- a/Fivetofive Hotel/RSSB.xlsx
+++ b/Fivetofive Hotel/RSSB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19FB6E-006A-47E3-8EAC-7D96F159A5C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF1D5A-722C-4466-A025-5D59EA44775D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1FBD2134-9AC0-4505-ABFE-7C35C31F024C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5DDCB420-8D25-4CDA-9ADF-08A72837EEA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UWAMARIYA Dative</t>
+    <t>MUKAMURANGWA Eugenie</t>
   </si>
   <si>
-    <t>20143577E</t>
+    <t>19637977L</t>
+  </si>
+  <si>
+    <t>NSABIMANA Jean De Dieu</t>
+  </si>
+  <si>
+    <t>10920821Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,28 +63,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,14 +80,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,32 +417,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6652F4-DAE7-48C7-88DD-50AEB5495C27}">
-  <dimension ref="B3:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3148DE7-3156-4B61-BE3D-5F2E195AD82B}">
+  <dimension ref="C5:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+    <row r="6" spans="3:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
